--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adipoq-Adipor2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adipoq-Adipor2.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.066236</v>
+        <v>21.797493</v>
       </c>
       <c r="N2">
-        <v>51.198708</v>
+        <v>65.39247899999999</v>
       </c>
       <c r="O2">
-        <v>0.4412899385552898</v>
+        <v>0.5076406019363033</v>
       </c>
       <c r="P2">
-        <v>0.4412899385552898</v>
+        <v>0.5076406019363033</v>
       </c>
       <c r="Q2">
-        <v>3.977479717141334</v>
+        <v>5.080152781904</v>
       </c>
       <c r="R2">
-        <v>35.797317454272</v>
+        <v>45.721375037136</v>
       </c>
       <c r="S2">
-        <v>0.3139525813276993</v>
+        <v>0.3611572878511963</v>
       </c>
       <c r="T2">
-        <v>0.3139525813276993</v>
+        <v>0.3611572878511963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>20.176086</v>
       </c>
       <c r="O3">
-        <v>0.1739009459228198</v>
+        <v>0.1566265815027233</v>
       </c>
       <c r="P3">
-        <v>0.1739009459228198</v>
+        <v>0.1566265815027233</v>
       </c>
       <c r="Q3">
         <v>1.567421834869333</v>
@@ -635,10 +635,10 @@
         <v>14.106796513824</v>
       </c>
       <c r="S3">
-        <v>0.1237205884333967</v>
+        <v>0.1114308649961487</v>
       </c>
       <c r="T3">
-        <v>0.1237205884333967</v>
+        <v>0.1114308649961487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.164162666666666</v>
+        <v>6.908085666666667</v>
       </c>
       <c r="N4">
-        <v>18.492488</v>
+        <v>20.724257</v>
       </c>
       <c r="O4">
-        <v>0.1593897426719134</v>
+        <v>0.1608820228112571</v>
       </c>
       <c r="P4">
-        <v>0.1593897426719134</v>
+        <v>0.1608820228112571</v>
       </c>
       <c r="Q4">
-        <v>1.436627969976889</v>
+        <v>1.610007656254222</v>
       </c>
       <c r="R4">
-        <v>12.929651729792</v>
+        <v>14.490068906288</v>
       </c>
       <c r="S4">
-        <v>0.1133966963145145</v>
+        <v>0.1144583683828712</v>
       </c>
       <c r="T4">
-        <v>0.1133966963145145</v>
+        <v>0.1144583683828712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.717761000000001</v>
+        <v>7.507888333333334</v>
       </c>
       <c r="N5">
-        <v>26.153283</v>
+        <v>22.523665</v>
       </c>
       <c r="O5">
-        <v>0.2254193728499771</v>
+        <v>0.1748507937497162</v>
       </c>
       <c r="P5">
-        <v>0.2254193728499771</v>
+        <v>0.1748507937497162</v>
       </c>
       <c r="Q5">
-        <v>2.031773002341334</v>
+        <v>1.749798465484445</v>
       </c>
       <c r="R5">
-        <v>18.285957021072</v>
+        <v>15.74818618936</v>
       </c>
       <c r="S5">
-        <v>0.1603730060540558</v>
+        <v>0.12439635089945</v>
       </c>
       <c r="T5">
-        <v>0.1603730060540558</v>
+        <v>0.12439635089945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.066236</v>
+        <v>21.797493</v>
       </c>
       <c r="N6">
-        <v>51.198708</v>
+        <v>65.39247899999999</v>
       </c>
       <c r="O6">
-        <v>0.4412899385552898</v>
+        <v>0.5076406019363033</v>
       </c>
       <c r="P6">
-        <v>0.4412899385552898</v>
+        <v>0.5076406019363033</v>
       </c>
       <c r="Q6">
-        <v>1.613242845353333</v>
+        <v>2.060480684135</v>
       </c>
       <c r="R6">
-        <v>14.51918560818</v>
+        <v>18.544326157215</v>
       </c>
       <c r="S6">
-        <v>0.1273373572275905</v>
+        <v>0.1464833140851071</v>
       </c>
       <c r="T6">
-        <v>0.1273373572275905</v>
+        <v>0.1464833140851071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>20.176086</v>
       </c>
       <c r="O7">
-        <v>0.1739009459228198</v>
+        <v>0.1566265815027233</v>
       </c>
       <c r="P7">
-        <v>0.1739009459228198</v>
+        <v>0.1566265815027233</v>
       </c>
       <c r="Q7">
         <v>0.6357372609233333</v>
@@ -883,10 +883,10 @@
         <v>5.721635348309999</v>
       </c>
       <c r="S7">
-        <v>0.0501803574894231</v>
+        <v>0.04519571650657458</v>
       </c>
       <c r="T7">
-        <v>0.0501803574894231</v>
+        <v>0.04519571650657458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.164162666666666</v>
+        <v>6.908085666666667</v>
       </c>
       <c r="N8">
-        <v>18.492488</v>
+        <v>20.724257</v>
       </c>
       <c r="O8">
-        <v>0.1593897426719134</v>
+        <v>0.1608820228112571</v>
       </c>
       <c r="P8">
-        <v>0.1593897426719134</v>
+        <v>0.1608820228112571</v>
       </c>
       <c r="Q8">
-        <v>0.5826880232755555</v>
+        <v>0.6530098245938889</v>
       </c>
       <c r="R8">
-        <v>5.244192209479999</v>
+        <v>5.877088421345</v>
       </c>
       <c r="S8">
-        <v>0.04599304635739889</v>
+        <v>0.04642365442838586</v>
       </c>
       <c r="T8">
-        <v>0.0459930463573989</v>
+        <v>0.04642365442838586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.717761000000001</v>
+        <v>7.507888333333334</v>
       </c>
       <c r="N9">
-        <v>26.153283</v>
+        <v>22.523665</v>
       </c>
       <c r="O9">
-        <v>0.2254193728499771</v>
+        <v>0.1748507937497162</v>
       </c>
       <c r="P9">
-        <v>0.2254193728499771</v>
+        <v>0.1748507937497162</v>
       </c>
       <c r="Q9">
-        <v>0.8240754177283334</v>
+        <v>0.7097081710027777</v>
       </c>
       <c r="R9">
-        <v>7.416678759555</v>
+        <v>6.387373539025</v>
       </c>
       <c r="S9">
-        <v>0.06504636679592127</v>
+        <v>0.05045444285026621</v>
       </c>
       <c r="T9">
-        <v>0.06504636679592127</v>
+        <v>0.05045444285026621</v>
       </c>
     </row>
   </sheetData>
